--- a/jasca-core/src/main/resources/jasca-excel/default.xlsx
+++ b/jasca-core/src/main/resources/jasca-excel/default.xlsx
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${violation.type}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${violation.filename}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${violation.severity.text}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;jx:forEach items="${violations}" var="violation" varStatus="status"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +81,14 @@
   </si>
   <si>
     <t>${date}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${violation.rulePattern.severity.text}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${violation.rulePattern.typename}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +514,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -537,18 +537,18 @@
     <row r="3" spans="2:7" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:7" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>5</v>
@@ -578,32 +578,32 @@
     </row>
     <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/jasca-core/src/main/resources/jasca-excel/default.xlsx
+++ b/jasca-core/src/main/resources/jasca-excel/default.xlsx
@@ -84,11 +84,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${violation.rulePattern.severity.text}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${violation.rulePattern.typename}</t>
+    <t>${violation.rule.severity.text}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${violation.rule.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
